--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24923"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyoji\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyoji\OneDrive\문서\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{033115F3-BC38-4255-88F1-7AE23B77FD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18732" windowHeight="9036" tabRatio="912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18732" windowHeight="9036" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="수입지출결의서_양식" sheetId="104" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">수입지출결의서_양식!$A$1:$H$231</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">수입지출결의서_양식!$A$1:$H$268</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -262,12 +261,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1309,15 +1308,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1328,20 +1336,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1353,22 +1361,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1377,10 +1385,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1392,7 +1400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1401,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1410,13 +1418,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1431,16 +1439,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -1455,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
@@ -1467,34 +1475,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,7 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
@@ -1515,7 +1523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1536,7 +1544,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,7 +1568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
@@ -1602,7 +1610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,14 +1634,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,107 +1745,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="1"/>
+    <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="표준 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="표준 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 3" xfId="4"/>
+    <cellStyle name="표준 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1760,7 +1774,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1835,23 +1849,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1887,23 +1884,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2079,34 +2059,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="1" max="2" width="13.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="13.59765625" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="38.125" customWidth="1"/>
-    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.09765625" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+    <row r="1" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
@@ -2117,21 +2097,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" thickBot="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
+    <row r="2" spans="1:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="60"/>
       <c r="G2" s="59"/>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" spans="1:11" ht="23.1" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="31"/>
       <c r="E3" s="45"/>
     </row>
-    <row r="4" spans="1:11" ht="23.1" customHeight="1">
+    <row r="4" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E4" s="57"/>
       <c r="F4" s="56" t="s">
         <v>4</v>
@@ -2143,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.1" customHeight="1">
+    <row r="5" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>7</v>
       </c>
@@ -2153,11 +2133,11 @@
         <v>8</v>
       </c>
       <c r="F5" s="53">
-        <f>+C35+E35</f>
+        <f>+C40+E40</f>
         <v>0</v>
       </c>
       <c r="G5" s="53">
-        <f>+G35</f>
+        <f>+G40</f>
         <v>0</v>
       </c>
       <c r="H5" s="52">
@@ -2166,7 +2146,7 @@
       </c>
       <c r="K5" s="46"/>
     </row>
-    <row r="6" spans="1:11" ht="23.1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2176,11 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F6" s="51">
-        <f>+D54</f>
+        <f>+D60</f>
         <v>0</v>
       </c>
       <c r="G6" s="51">
-        <f>+D71</f>
+        <f>+D84</f>
         <v>0</v>
       </c>
       <c r="H6" s="50">
@@ -2188,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>11</v>
       </c>
@@ -2199,18 +2179,18 @@
         <f>F5-F6</f>
         <v>0</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="123"/>
-    </row>
-    <row r="8" spans="1:11" ht="23.1" customHeight="1">
+      <c r="H7" s="117"/>
+    </row>
+    <row r="8" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
       <c r="E8" s="48"/>
       <c r="F8" s="2"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:11" ht="23.1" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
@@ -2221,27 +2201,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A10" s="124" t="s">
+    <row r="10" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="128" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130" t="s">
+      <c r="D10" s="123"/>
+      <c r="E10" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="131"/>
-      <c r="G10" s="132" t="s">
+      <c r="F10" s="125"/>
+      <c r="G10" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="133"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
+      <c r="H10" s="127"/>
+    </row>
+    <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="120"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="91" t="s">
         <v>20</v>
       </c>
@@ -2261,644 +2241,644 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="23.1" customHeight="1">
+    <row r="12" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="77">
-        <f>SUMIFS($C$75:$C$177, $A$75:$A$177,$A12, $D$75:$D$177, "&lt;&gt;통장")+SUMIFS($G$75:$G$177,$E$75:$E$177,$A12,$H$75:$H$177, "&lt;&gt;통장")</f>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A12, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A12,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="99">
-        <f>SUMIFS($C$180:$C$231,$A$180:$A$231,$A12, $D$180:$D$231, "&lt;&gt;통장")+SUMIFS($G$180:$G$231, $E$180:$E$231,$A12, $H$180:$H$231, "&lt;&gt;통장")</f>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A12, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A12, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F12" s="95"/>
       <c r="G12" s="77">
-        <f>SUMIFS($C$75:$C$177, $A$75:$A$177,$A12, $D$75:$D$177, "통장")+SUMIFS($G$75:$G$177,$E$75:$E$177,$A12,$H$75:$H$177, "통장") + SUMIFS($C$180:$C$231,$A$180:$A$231,$A12, $D$180:$D$231, "통장")+SUMIFS($G$180:$G$231, $E$180:$E$231,$A12, $H$180:$H$231, "통장")</f>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A12, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A12,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A12, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A12, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H12" s="79"/>
     </row>
-    <row r="13" spans="1:11" ht="23.1" customHeight="1">
+    <row r="13" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="80" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="42">
-        <f t="shared" ref="C13:C34" si="0">SUMIFS($C$75:$C$177, $A$75:$A$177,$A13, $D$75:$D$177, "&lt;&gt;통장")+SUMIFS($G$75:$G$177,$E$75:$E$177,$A13,$H$75:$H$177, "&lt;&gt;통장")</f>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A13, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A13,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="100">
-        <f t="shared" ref="E13:E34" si="1">SUMIFS($C$180:$C$231,$A$180:$A$231,$A13, $D$180:$D$231, "&lt;&gt;통장")+SUMIFS($G$180:$G$231, $E$180:$E$231,$A13, $H$180:$H$231, "&lt;&gt;통장")</f>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A13, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A13, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F13" s="96"/>
       <c r="G13" s="42">
-        <f t="shared" ref="G13:G34" si="2">SUMIFS($C$75:$C$177, $A$75:$A$177,$A13, $D$75:$D$177, "통장")+SUMIFS($G$75:$G$177,$E$75:$E$177,$A13,$H$75:$H$177, "통장") + SUMIFS($C$180:$C$231,$A$180:$A$231,$A13, $D$180:$D$231, "통장")+SUMIFS($G$180:$G$231, $E$180:$E$231,$A13, $H$180:$H$231, "통장")</f>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A13, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A13,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A13, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A13, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H13" s="81"/>
     </row>
-    <row r="14" spans="1:11" ht="23.1" customHeight="1">
+    <row r="14" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A14, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A14,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A14, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A14, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F14" s="97"/>
       <c r="G14" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A14, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A14,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A14, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A14, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H14" s="83"/>
     </row>
-    <row r="15" spans="1:11" ht="23.1" customHeight="1">
+    <row r="15" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A15, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A15,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A15, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A15, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F15" s="97"/>
       <c r="G15" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A15, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A15,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A15, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A15, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H15" s="83"/>
     </row>
-    <row r="16" spans="1:11" ht="23.1" customHeight="1">
+    <row r="16" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="82" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A16, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A16,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A16, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A16, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F16" s="97"/>
       <c r="G16" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A16, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A16,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A16, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A16, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H16" s="83"/>
     </row>
-    <row r="17" spans="1:10" ht="23.1" customHeight="1">
+    <row r="17" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="82" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A17, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A17,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A17, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A17, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F17" s="97"/>
       <c r="G17" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A17, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A17,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A17, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A17, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H17" s="83"/>
     </row>
-    <row r="18" spans="1:10" ht="23.1" customHeight="1">
+    <row r="18" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="82" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A18, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A18,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A18, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A18, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F18" s="97"/>
       <c r="G18" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A18, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A18,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A18, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A18, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H18" s="83"/>
     </row>
-    <row r="19" spans="1:10" ht="23.1" customHeight="1">
+    <row r="19" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="82" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A19, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A19,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A19, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A19, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F19" s="97"/>
       <c r="G19" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A19, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A19,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A19, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A19, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H19" s="83"/>
     </row>
-    <row r="20" spans="1:10" ht="23.1" customHeight="1">
+    <row r="20" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="67"/>
       <c r="C20" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A20, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A20,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A20, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A20, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F20" s="97"/>
       <c r="G20" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A20, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A20,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A20, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A20, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H20" s="83"/>
     </row>
-    <row r="21" spans="1:10" ht="23.1" customHeight="1">
+    <row r="21" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="82" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="67"/>
       <c r="C21" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A21, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A21,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A21, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A21, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F21" s="97"/>
       <c r="G21" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A21, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A21,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A21, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A21, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H21" s="83"/>
     </row>
-    <row r="22" spans="1:10" ht="23.1" customHeight="1">
+    <row r="22" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="82" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="67"/>
       <c r="C22" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A22, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A22,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A22, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A22, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F22" s="97"/>
       <c r="G22" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A22, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A22,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A22, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A22, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H22" s="83"/>
     </row>
-    <row r="23" spans="1:10" ht="23.1" customHeight="1">
+    <row r="23" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="82" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="67"/>
       <c r="C23" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A23, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A23,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A23, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A23, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F23" s="97"/>
       <c r="G23" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A23, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A23,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A23, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A23, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H23" s="83"/>
     </row>
-    <row r="24" spans="1:10" ht="23.1" customHeight="1">
+    <row r="24" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="67"/>
       <c r="C24" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A24, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A24,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A24, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A24, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F24" s="97"/>
       <c r="G24" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A24, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A24,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A24, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A24, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H24" s="83"/>
     </row>
-    <row r="25" spans="1:10" ht="23.1" customHeight="1">
+    <row r="25" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="84" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A25, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A25,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A25, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A25, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F25" s="97"/>
       <c r="G25" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A25, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A25,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A25, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A25, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H25" s="83"/>
     </row>
-    <row r="26" spans="1:10" ht="23.1" customHeight="1">
+    <row r="26" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="84" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A26, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A26,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A26, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A26, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F26" s="98"/>
       <c r="G26" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A26, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A26,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A26, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A26, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H26" s="85"/>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" spans="1:10" ht="23.1" customHeight="1">
+    <row r="27" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="82" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="67"/>
       <c r="C27" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A27, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A27,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A27, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A27, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F27" s="97"/>
       <c r="G27" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A27, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A27,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A27, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A27, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H27" s="83"/>
       <c r="J27" s="37"/>
     </row>
-    <row r="28" spans="1:10" ht="23.1" customHeight="1">
+    <row r="28" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="82" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="67"/>
       <c r="C28" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A28, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A28,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A28, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A28, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A28, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A28,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A28, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A28, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H28" s="83"/>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" spans="1:10" ht="23.1" customHeight="1">
+    <row r="29" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="84" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="67"/>
       <c r="C29" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A29, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A29,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A29, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A29, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F29" s="97"/>
       <c r="G29" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A29, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A29,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A29, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A29, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H29" s="83"/>
       <c r="J29" s="37"/>
     </row>
-    <row r="30" spans="1:10" ht="23.1" customHeight="1">
+    <row r="30" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="82" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="67"/>
       <c r="C30" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A30, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A30,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A30, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A30, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F30" s="97"/>
       <c r="G30" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A30, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A30,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A30, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A30, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H30" s="83"/>
       <c r="J30" s="37"/>
     </row>
-    <row r="31" spans="1:10" ht="23.1" customHeight="1">
+    <row r="31" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="82" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A31, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A31,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A31, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A31, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F31" s="98"/>
       <c r="G31" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A31, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A31,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A31, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A31, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H31" s="85"/>
       <c r="J31" s="37"/>
     </row>
-    <row r="32" spans="1:10" ht="23.1" customHeight="1">
+    <row r="32" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="84" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A32, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A32,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="100">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A32, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A32, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F32" s="98"/>
       <c r="G32" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A32, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A32,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A32, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A32, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H32" s="85"/>
     </row>
-    <row r="33" spans="1:8" ht="23.1" customHeight="1">
+    <row r="33" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="84" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42">
-        <f t="shared" si="0"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A33, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A33,$H$88:$H$207, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="101">
-        <f t="shared" si="1"/>
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A33, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A33, $H$210:$H$268, "&lt;&gt;통장")</f>
         <v>0</v>
       </c>
       <c r="F33" s="98"/>
       <c r="G33" s="42">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A33, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A33,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A33, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A33, $H$210:$H$268, "통장")</f>
         <v>0</v>
       </c>
       <c r="H33" s="85"/>
     </row>
-    <row r="34" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="135">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="87"/>
-    </row>
-    <row r="35" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A35" s="113" t="s">
+    <row r="34" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="84"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="85"/>
+    </row>
+    <row r="35" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="84"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="85"/>
+    </row>
+    <row r="36" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="84"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="85"/>
+    </row>
+    <row r="37" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="84"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="85"/>
+    </row>
+    <row r="38" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="84"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="85"/>
+    </row>
+    <row r="39" spans="1:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="86"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="102">
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A39, $D$88:$D$207, "&lt;&gt;통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A39,$H$88:$H$207, "&lt;&gt;통장")</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="103">
+        <f>SUMIFS($C$210:$C$268,$A$210:$A$268,$A39, $D$210:$D$268, "&lt;&gt;통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A39, $H$210:$H$268, "&lt;&gt;통장")</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="102">
+        <f>SUMIFS($C$88:$C$207, $A$88:$A$207,$A39, $D$88:$D$207, "통장")+SUMIFS($G$88:$G$207,$E$88:$E$207,$A39,$H$88:$H$207, "통장") + SUMIFS($C$210:$C$268,$A$210:$A$268,$A39, $D$210:$D$268, "통장")+SUMIFS($G$210:$G$268, $E$210:$E$268,$A39, $H$210:$H$268, "통장")</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="87"/>
+    </row>
+    <row r="40" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="34">
-        <f>SUM(C12:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="35">
-        <f>SUM(E12:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34">
-        <f>SUM(G12:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="88"/>
-    </row>
-    <row r="36" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A36" s="89"/>
-      <c r="H36" s="90"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A37" s="115" t="s">
+      <c r="B40" s="105"/>
+      <c r="C40" s="34">
+        <f>SUM(C12:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="35">
+        <f>SUM(E12:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34">
+        <f>SUM(G12:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="88"/>
+    </row>
+    <row r="41" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="89"/>
+      <c r="H41" s="90"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="116"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A38" s="117"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="119"/>
-    </row>
-    <row r="39" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A39" s="31" t="s">
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="108"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="109"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="111"/>
+    </row>
+    <row r="44" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="H39" s="30" t="s">
+      <c r="B44" s="31"/>
+      <c r="H44" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A40" s="105" t="s">
+    <row r="45" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B45" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="105" t="s">
+      <c r="C45" s="129"/>
+      <c r="D45" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="107" t="s">
+      <c r="E45" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="111" t="s">
+      <c r="F45" s="129"/>
+      <c r="G45" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="111"/>
-    </row>
-    <row r="41" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="29" t="s">
+      <c r="H45" s="132"/>
+    </row>
+    <row r="46" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="113"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="74" t="s">
+      <c r="H46" s="74" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" ht="23.1" customHeight="1">
+    <row r="47" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="26"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="4"/>
       <c r="E47" s="23"/>
       <c r="F47" s="22"/>
       <c r="G47" s="21"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" ht="23.1" customHeight="1">
+    <row r="48" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="26"/>
       <c r="B48" s="25"/>
       <c r="C48" s="24"/>
@@ -2908,7 +2888,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="1:8" ht="23.1" customHeight="1">
+    <row r="49" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="26"/>
       <c r="B49" s="25"/>
       <c r="C49" s="24"/>
@@ -2918,7 +2898,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" ht="23.1" customHeight="1">
+    <row r="50" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="26"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
@@ -2928,7 +2908,7 @@
       <c r="G50" s="21"/>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" spans="1:8" ht="23.1" customHeight="1">
+    <row r="51" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="26"/>
       <c r="B51" s="25"/>
       <c r="C51" s="24"/>
@@ -2938,7 +2918,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" ht="23.1" customHeight="1">
+    <row r="52" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="26"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
@@ -2948,146 +2928,146 @@
       <c r="G52" s="21"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A54" s="102" t="s">
+    <row r="53" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="26"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="26"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="19"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="11">
-        <f>SUM(D42:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="102"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" ht="23.1" customHeight="1"/>
-    <row r="56" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A56" s="31" t="s">
+      <c r="B60" s="134"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="11">
+        <f>SUM(D47:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="133"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="H56" s="30" t="s">
+      <c r="B62" s="31"/>
+      <c r="H62" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A57" s="105" t="s">
+    <row r="63" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B63" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="108"/>
-      <c r="D57" s="105" t="s">
+      <c r="C63" s="129"/>
+      <c r="D63" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="107" t="s">
+      <c r="E63" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="108"/>
-      <c r="G57" s="111" t="s">
+      <c r="F63" s="129"/>
+      <c r="G63" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="111"/>
-    </row>
-    <row r="58" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A58" s="106"/>
-      <c r="B58" s="109"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="29" t="s">
+      <c r="H63" s="132"/>
+    </row>
+    <row r="64" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="113"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="74" t="s">
+      <c r="H64" s="74" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A59" s="26"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A61" s="26"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A63" s="26"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A64" s="26"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="1:8" ht="23.1" customHeight="1">
+    <row r="65" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="26"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="24"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="4"/>
       <c r="E65" s="23"/>
       <c r="F65" s="22"/>
       <c r="G65" s="21"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" ht="23.1" customHeight="1">
+    <row r="66" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="26"/>
       <c r="B66" s="25"/>
       <c r="C66" s="24"/>
@@ -3097,7 +3077,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="1:8" ht="23.1" customHeight="1">
+    <row r="67" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="26"/>
       <c r="B67" s="25"/>
       <c r="C67" s="24"/>
@@ -3107,7 +3087,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" ht="23.1" customHeight="1">
+    <row r="68" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="26"/>
       <c r="B68" s="25"/>
       <c r="C68" s="24"/>
@@ -3117,7 +3097,7 @@
       <c r="G68" s="21"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" ht="23.1" customHeight="1">
+    <row r="69" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="26"/>
       <c r="B69" s="25"/>
       <c r="C69" s="24"/>
@@ -3127,220 +3107,220 @@
       <c r="G69" s="21"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="12"/>
-    </row>
-    <row r="71" spans="1:8" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A71" s="102" t="s">
+    <row r="70" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="26"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="26"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="26"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="26"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="26"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="26"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="26"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="26"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="26"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="26"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="26"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="26"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="26"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="19"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="103"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="11">
-        <f>SUM(D59:D70)</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="102"/>
-      <c r="F71" s="104"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" ht="23.1" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A73" s="112" t="s">
+      <c r="B84" s="134"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="11">
+        <f>SUM(D65:D83)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="133"/>
+      <c r="F84" s="135"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="112"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A74" s="112"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="112"/>
-      <c r="H74" s="112"/>
-    </row>
-    <row r="75" spans="1:8" ht="34.9">
-      <c r="A75" s="68" t="s">
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="107"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+    </row>
+    <row r="88" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A88" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B88" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="69" t="s">
+      <c r="C88" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="72" t="s">
+      <c r="D88" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="73" t="s">
+      <c r="E88" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="68" t="s">
+      <c r="F88" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="G75" s="69" t="s">
+      <c r="G88" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="70" t="s">
+      <c r="H88" s="70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="71"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A77" s="71"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="71"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A78" s="71"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="71"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A79" s="71"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="71"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A80" s="71"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="71"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A81" s="71"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="71"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A82" s="71"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="71"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A83" s="71"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="71"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A84" s="71"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="71"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A85" s="71"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="71"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="71"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="71"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="71"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="71"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A88" s="71"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="71"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1">
+    <row r="89" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="71"/>
       <c r="B89" s="1"/>
       <c r="C89" s="4"/>
@@ -3350,7 +3330,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="71"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1">
+    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="71"/>
       <c r="B90" s="1"/>
       <c r="C90" s="4"/>
@@ -3360,7 +3340,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="71"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1">
+    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="71"/>
       <c r="B91" s="1"/>
       <c r="C91" s="4"/>
@@ -3370,7 +3350,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="71"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1">
+    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="71"/>
       <c r="B92" s="1"/>
       <c r="C92" s="4"/>
@@ -3380,7 +3360,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="71"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1">
+    <row r="93" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="71"/>
       <c r="B93" s="1"/>
       <c r="C93" s="4"/>
@@ -3390,7 +3370,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="71"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1">
+    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="71"/>
       <c r="B94" s="1"/>
       <c r="C94" s="4"/>
@@ -3400,7 +3380,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="71"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1">
+    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="71"/>
       <c r="B95" s="1"/>
       <c r="C95" s="4"/>
@@ -3410,7 +3390,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="71"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1">
+    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="71"/>
       <c r="B96" s="1"/>
       <c r="C96" s="4"/>
@@ -3420,7 +3400,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="71"/>
     </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1">
+    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="71"/>
       <c r="B97" s="1"/>
       <c r="C97" s="4"/>
@@ -3430,7 +3410,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="71"/>
     </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1">
+    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="71"/>
       <c r="B98" s="1"/>
       <c r="C98" s="4"/>
@@ -3440,7 +3420,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="71"/>
     </row>
-    <row r="99" spans="1:8" ht="16.5" customHeight="1">
+    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="71"/>
       <c r="B99" s="1"/>
       <c r="C99" s="4"/>
@@ -3450,7 +3430,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="71"/>
     </row>
-    <row r="100" spans="1:8" ht="16.5" customHeight="1">
+    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="71"/>
       <c r="B100" s="1"/>
       <c r="C100" s="4"/>
@@ -3460,7 +3440,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="71"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5" customHeight="1">
+    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="71"/>
       <c r="B101" s="1"/>
       <c r="C101" s="4"/>
@@ -3470,7 +3450,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="71"/>
     </row>
-    <row r="102" spans="1:8" ht="16.5" customHeight="1">
+    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="71"/>
       <c r="B102" s="1"/>
       <c r="C102" s="4"/>
@@ -3480,7 +3460,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="71"/>
     </row>
-    <row r="103" spans="1:8" ht="16.5" customHeight="1">
+    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="71"/>
       <c r="B103" s="1"/>
       <c r="C103" s="4"/>
@@ -3490,7 +3470,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="71"/>
     </row>
-    <row r="104" spans="1:8" ht="16.5" customHeight="1">
+    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="71"/>
       <c r="B104" s="1"/>
       <c r="C104" s="4"/>
@@ -3500,7 +3480,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="71"/>
     </row>
-    <row r="105" spans="1:8" ht="16.5" customHeight="1">
+    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="71"/>
       <c r="B105" s="1"/>
       <c r="C105" s="4"/>
@@ -3510,7 +3490,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="71"/>
     </row>
-    <row r="106" spans="1:8" ht="16.5" customHeight="1">
+    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="71"/>
       <c r="B106" s="1"/>
       <c r="C106" s="4"/>
@@ -3520,7 +3500,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="71"/>
     </row>
-    <row r="107" spans="1:8" ht="16.5" customHeight="1">
+    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="71"/>
       <c r="B107" s="1"/>
       <c r="C107" s="4"/>
@@ -3530,7 +3510,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="71"/>
     </row>
-    <row r="108" spans="1:8" ht="16.5" customHeight="1">
+    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="71"/>
       <c r="B108" s="1"/>
       <c r="C108" s="4"/>
@@ -3540,7 +3520,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="71"/>
     </row>
-    <row r="109" spans="1:8" ht="16.5" customHeight="1">
+    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="71"/>
       <c r="B109" s="1"/>
       <c r="C109" s="4"/>
@@ -3550,7 +3530,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="71"/>
     </row>
-    <row r="110" spans="1:8" ht="16.5" customHeight="1">
+    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="71"/>
       <c r="B110" s="1"/>
       <c r="C110" s="4"/>
@@ -3560,7 +3540,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="71"/>
     </row>
-    <row r="111" spans="1:8" ht="16.5" customHeight="1">
+    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="71"/>
       <c r="B111" s="1"/>
       <c r="C111" s="4"/>
@@ -3570,7 +3550,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="71"/>
     </row>
-    <row r="112" spans="1:8" ht="16.5" customHeight="1">
+    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="71"/>
       <c r="B112" s="1"/>
       <c r="C112" s="4"/>
@@ -3580,7 +3560,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="71"/>
     </row>
-    <row r="113" spans="1:8" ht="16.5" customHeight="1">
+    <row r="113" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="71"/>
       <c r="B113" s="1"/>
       <c r="C113" s="4"/>
@@ -3590,7 +3570,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="71"/>
     </row>
-    <row r="114" spans="1:8" ht="16.5" customHeight="1">
+    <row r="114" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="71"/>
       <c r="B114" s="1"/>
       <c r="C114" s="4"/>
@@ -3600,7 +3580,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="71"/>
     </row>
-    <row r="115" spans="1:8" ht="16.5" customHeight="1">
+    <row r="115" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="71"/>
       <c r="B115" s="1"/>
       <c r="C115" s="4"/>
@@ -3610,7 +3590,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="71"/>
     </row>
-    <row r="116" spans="1:8" ht="16.5" customHeight="1">
+    <row r="116" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="71"/>
       <c r="B116" s="1"/>
       <c r="C116" s="4"/>
@@ -3620,7 +3600,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="71"/>
     </row>
-    <row r="117" spans="1:8" ht="16.5" customHeight="1">
+    <row r="117" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="71"/>
       <c r="B117" s="1"/>
       <c r="C117" s="4"/>
@@ -3630,7 +3610,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="71"/>
     </row>
-    <row r="118" spans="1:8" ht="16.5" customHeight="1">
+    <row r="118" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="71"/>
       <c r="B118" s="1"/>
       <c r="C118" s="4"/>
@@ -3640,7 +3620,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="71"/>
     </row>
-    <row r="119" spans="1:8" ht="16.5" customHeight="1">
+    <row r="119" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="71"/>
       <c r="B119" s="1"/>
       <c r="C119" s="4"/>
@@ -3650,7 +3630,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="71"/>
     </row>
-    <row r="120" spans="1:8" ht="16.5" customHeight="1">
+    <row r="120" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="71"/>
       <c r="B120" s="1"/>
       <c r="C120" s="4"/>
@@ -3660,7 +3640,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="71"/>
     </row>
-    <row r="121" spans="1:8" ht="16.5" customHeight="1">
+    <row r="121" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="71"/>
       <c r="B121" s="1"/>
       <c r="C121" s="4"/>
@@ -3670,7 +3650,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="71"/>
     </row>
-    <row r="122" spans="1:8" ht="16.5" customHeight="1">
+    <row r="122" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="71"/>
       <c r="B122" s="1"/>
       <c r="C122" s="4"/>
@@ -3680,7 +3660,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="71"/>
     </row>
-    <row r="123" spans="1:8" ht="16.5" customHeight="1">
+    <row r="123" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="71"/>
       <c r="B123" s="1"/>
       <c r="C123" s="4"/>
@@ -3690,7 +3670,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="71"/>
     </row>
-    <row r="124" spans="1:8" ht="16.5" customHeight="1">
+    <row r="124" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="71"/>
       <c r="B124" s="1"/>
       <c r="C124" s="4"/>
@@ -3700,7 +3680,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="71"/>
     </row>
-    <row r="125" spans="1:8" ht="16.5" customHeight="1">
+    <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="71"/>
       <c r="B125" s="1"/>
       <c r="C125" s="4"/>
@@ -3710,7 +3690,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="71"/>
     </row>
-    <row r="126" spans="1:8" ht="16.5" customHeight="1">
+    <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="71"/>
       <c r="B126" s="1"/>
       <c r="C126" s="4"/>
@@ -3720,7 +3700,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="71"/>
     </row>
-    <row r="127" spans="1:8" ht="16.5" customHeight="1">
+    <row r="127" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="71"/>
       <c r="B127" s="1"/>
       <c r="C127" s="4"/>
@@ -3730,7 +3710,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="71"/>
     </row>
-    <row r="128" spans="1:8" ht="16.5" customHeight="1">
+    <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="71"/>
       <c r="B128" s="1"/>
       <c r="C128" s="4"/>
@@ -3740,7 +3720,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="71"/>
     </row>
-    <row r="129" spans="1:8" ht="16.5" customHeight="1">
+    <row r="129" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="71"/>
       <c r="B129" s="1"/>
       <c r="C129" s="4"/>
@@ -3750,7 +3730,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="71"/>
     </row>
-    <row r="130" spans="1:8" ht="16.5" customHeight="1">
+    <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="71"/>
       <c r="B130" s="1"/>
       <c r="C130" s="4"/>
@@ -3760,7 +3740,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="71"/>
     </row>
-    <row r="131" spans="1:8" ht="16.5" customHeight="1">
+    <row r="131" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="71"/>
       <c r="B131" s="1"/>
       <c r="C131" s="4"/>
@@ -3770,7 +3750,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="71"/>
     </row>
-    <row r="132" spans="1:8" ht="16.5" customHeight="1">
+    <row r="132" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="71"/>
       <c r="B132" s="1"/>
       <c r="C132" s="4"/>
@@ -3780,7 +3760,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="71"/>
     </row>
-    <row r="133" spans="1:8" ht="16.5" customHeight="1">
+    <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="71"/>
       <c r="B133" s="1"/>
       <c r="C133" s="4"/>
@@ -3790,7 +3770,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="71"/>
     </row>
-    <row r="134" spans="1:8" ht="16.5" customHeight="1">
+    <row r="134" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="71"/>
       <c r="B134" s="1"/>
       <c r="C134" s="4"/>
@@ -3800,7 +3780,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="71"/>
     </row>
-    <row r="135" spans="1:8" ht="16.5" customHeight="1">
+    <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="71"/>
       <c r="B135" s="1"/>
       <c r="C135" s="4"/>
@@ -3810,33 +3790,17 @@
       <c r="G135" s="4"/>
       <c r="H135" s="71"/>
     </row>
-    <row r="136" spans="1:8" ht="34.9">
-      <c r="A136" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B136" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C136" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D136" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F136" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="G136" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="H136" s="70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="16.5" customHeight="1">
+    <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="71"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="71"/>
+    </row>
+    <row r="137" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="71"/>
       <c r="B137" s="1"/>
       <c r="C137" s="4"/>
@@ -3846,7 +3810,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="71"/>
     </row>
-    <row r="138" spans="1:8" ht="16.5" customHeight="1">
+    <row r="138" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="71"/>
       <c r="B138" s="1"/>
       <c r="C138" s="4"/>
@@ -3856,7 +3820,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="71"/>
     </row>
-    <row r="139" spans="1:8" ht="16.5" customHeight="1">
+    <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="71"/>
       <c r="B139" s="1"/>
       <c r="C139" s="4"/>
@@ -3866,7 +3830,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="71"/>
     </row>
-    <row r="140" spans="1:8" ht="16.5" customHeight="1">
+    <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="71"/>
       <c r="B140" s="1"/>
       <c r="C140" s="4"/>
@@ -3876,7 +3840,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="71"/>
     </row>
-    <row r="141" spans="1:8" ht="16.5" customHeight="1">
+    <row r="141" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="71"/>
       <c r="B141" s="1"/>
       <c r="C141" s="4"/>
@@ -3886,7 +3850,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="71"/>
     </row>
-    <row r="142" spans="1:8" ht="16.5" customHeight="1">
+    <row r="142" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="71"/>
       <c r="B142" s="1"/>
       <c r="C142" s="4"/>
@@ -3896,7 +3860,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="71"/>
     </row>
-    <row r="143" spans="1:8" ht="16.5" customHeight="1">
+    <row r="143" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="71"/>
       <c r="B143" s="1"/>
       <c r="C143" s="4"/>
@@ -3906,7 +3870,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="71"/>
     </row>
-    <row r="144" spans="1:8" ht="16.5" customHeight="1">
+    <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="71"/>
       <c r="B144" s="1"/>
       <c r="C144" s="4"/>
@@ -3916,7 +3880,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="71"/>
     </row>
-    <row r="145" spans="1:8" ht="16.5" customHeight="1">
+    <row r="145" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="71"/>
       <c r="B145" s="1"/>
       <c r="C145" s="4"/>
@@ -3926,7 +3890,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="71"/>
     </row>
-    <row r="146" spans="1:8" ht="16.5" customHeight="1">
+    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="71"/>
       <c r="B146" s="1"/>
       <c r="C146" s="4"/>
@@ -3936,17 +3900,33 @@
       <c r="G146" s="4"/>
       <c r="H146" s="71"/>
     </row>
-    <row r="147" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A147" s="71"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="71"/>
-    </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1">
+    <row r="147" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A147" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E147" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F147" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G147" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H147" s="70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="71"/>
       <c r="B148" s="1"/>
       <c r="C148" s="4"/>
@@ -3956,7 +3936,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="71"/>
     </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1">
+    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="71"/>
       <c r="B149" s="1"/>
       <c r="C149" s="4"/>
@@ -3966,7 +3946,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="71"/>
     </row>
-    <row r="150" spans="1:8" ht="16.5" customHeight="1">
+    <row r="150" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="71"/>
       <c r="B150" s="1"/>
       <c r="C150" s="4"/>
@@ -3976,7 +3956,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="71"/>
     </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1">
+    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="71"/>
       <c r="B151" s="1"/>
       <c r="C151" s="4"/>
@@ -3986,7 +3966,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="71"/>
     </row>
-    <row r="152" spans="1:8" ht="16.5" customHeight="1">
+    <row r="152" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="71"/>
       <c r="B152" s="1"/>
       <c r="C152" s="4"/>
@@ -3996,7 +3976,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="71"/>
     </row>
-    <row r="153" spans="1:8" ht="16.5" customHeight="1">
+    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="71"/>
       <c r="B153" s="1"/>
       <c r="C153" s="4"/>
@@ -4006,7 +3986,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="71"/>
     </row>
-    <row r="154" spans="1:8" ht="16.5" customHeight="1">
+    <row r="154" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="71"/>
       <c r="B154" s="1"/>
       <c r="C154" s="4"/>
@@ -4016,7 +3996,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="71"/>
     </row>
-    <row r="155" spans="1:8" ht="16.5" customHeight="1">
+    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="71"/>
       <c r="B155" s="1"/>
       <c r="C155" s="4"/>
@@ -4026,7 +4006,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="71"/>
     </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1">
+    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="71"/>
       <c r="B156" s="1"/>
       <c r="C156" s="4"/>
@@ -4036,7 +4016,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="71"/>
     </row>
-    <row r="157" spans="1:8" ht="16.5" customHeight="1">
+    <row r="157" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="71"/>
       <c r="B157" s="1"/>
       <c r="C157" s="4"/>
@@ -4046,7 +4026,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="71"/>
     </row>
-    <row r="158" spans="1:8" ht="16.5" customHeight="1">
+    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="71"/>
       <c r="B158" s="1"/>
       <c r="C158" s="4"/>
@@ -4056,7 +4036,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="71"/>
     </row>
-    <row r="159" spans="1:8" ht="16.5" customHeight="1">
+    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="71"/>
       <c r="B159" s="1"/>
       <c r="C159" s="4"/>
@@ -4066,7 +4046,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="71"/>
     </row>
-    <row r="160" spans="1:8" ht="16.5" customHeight="1">
+    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="71"/>
       <c r="B160" s="1"/>
       <c r="C160" s="4"/>
@@ -4076,7 +4056,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="71"/>
     </row>
-    <row r="161" spans="1:8" ht="16.5" customHeight="1">
+    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="71"/>
       <c r="B161" s="1"/>
       <c r="C161" s="4"/>
@@ -4086,7 +4066,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="71"/>
     </row>
-    <row r="162" spans="1:8" ht="16.5" customHeight="1">
+    <row r="162" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="71"/>
       <c r="B162" s="1"/>
       <c r="C162" s="4"/>
@@ -4096,7 +4076,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="71"/>
     </row>
-    <row r="163" spans="1:8" ht="16.5" customHeight="1">
+    <row r="163" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="71"/>
       <c r="B163" s="1"/>
       <c r="C163" s="4"/>
@@ -4106,7 +4086,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="71"/>
     </row>
-    <row r="164" spans="1:8" ht="16.5" customHeight="1">
+    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="71"/>
       <c r="B164" s="1"/>
       <c r="C164" s="4"/>
@@ -4116,7 +4096,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="71"/>
     </row>
-    <row r="165" spans="1:8" ht="16.5" customHeight="1">
+    <row r="165" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="71"/>
       <c r="B165" s="1"/>
       <c r="C165" s="4"/>
@@ -4126,7 +4106,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="71"/>
     </row>
-    <row r="166" spans="1:8" ht="16.5" customHeight="1">
+    <row r="166" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="71"/>
       <c r="B166" s="1"/>
       <c r="C166" s="4"/>
@@ -4136,7 +4116,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="71"/>
     </row>
-    <row r="167" spans="1:8" ht="16.5" customHeight="1">
+    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="71"/>
       <c r="B167" s="1"/>
       <c r="C167" s="4"/>
@@ -4146,7 +4126,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="71"/>
     </row>
-    <row r="168" spans="1:8" ht="16.5" customHeight="1">
+    <row r="168" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="71"/>
       <c r="B168" s="1"/>
       <c r="C168" s="4"/>
@@ -4156,7 +4136,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="71"/>
     </row>
-    <row r="169" spans="1:8" ht="16.5" customHeight="1">
+    <row r="169" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="71"/>
       <c r="B169" s="1"/>
       <c r="C169" s="4"/>
@@ -4166,7 +4146,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="71"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5" customHeight="1">
+    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="71"/>
       <c r="B170" s="1"/>
       <c r="C170" s="4"/>
@@ -4176,7 +4156,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="71"/>
     </row>
-    <row r="171" spans="1:8" ht="16.5" customHeight="1">
+    <row r="171" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="71"/>
       <c r="B171" s="1"/>
       <c r="C171" s="4"/>
@@ -4186,7 +4166,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="71"/>
     </row>
-    <row r="172" spans="1:8" ht="16.5" customHeight="1">
+    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="71"/>
       <c r="B172" s="1"/>
       <c r="C172" s="4"/>
@@ -4196,7 +4176,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="71"/>
     </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1">
+    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="71"/>
       <c r="B173" s="1"/>
       <c r="C173" s="4"/>
@@ -4206,7 +4186,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="71"/>
     </row>
-    <row r="174" spans="1:8" ht="16.5" customHeight="1">
+    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="71"/>
       <c r="B174" s="1"/>
       <c r="C174" s="4"/>
@@ -4216,7 +4196,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="71"/>
     </row>
-    <row r="175" spans="1:8" ht="16.5" customHeight="1">
+    <row r="175" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="71"/>
       <c r="B175" s="1"/>
       <c r="C175" s="4"/>
@@ -4226,7 +4206,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="71"/>
     </row>
-    <row r="176" spans="1:8" ht="16.5" customHeight="1">
+    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="71"/>
       <c r="B176" s="1"/>
       <c r="C176" s="4"/>
@@ -4236,7 +4216,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="71"/>
     </row>
-    <row r="177" spans="1:8" ht="16.5" customHeight="1">
+    <row r="177" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="71"/>
       <c r="B177" s="1"/>
       <c r="C177" s="4"/>
@@ -4246,55 +4226,37 @@
       <c r="G177" s="4"/>
       <c r="H177" s="71"/>
     </row>
-    <row r="178" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A178" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="B178" s="112"/>
-      <c r="C178" s="112"/>
-      <c r="D178" s="112"/>
-      <c r="E178" s="112"/>
-      <c r="F178" s="112"/>
-      <c r="G178" s="112"/>
-      <c r="H178" s="112"/>
-    </row>
-    <row r="179" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A179" s="112"/>
-      <c r="B179" s="112"/>
-      <c r="C179" s="112"/>
-      <c r="D179" s="112"/>
-      <c r="E179" s="112"/>
-      <c r="F179" s="112"/>
-      <c r="G179" s="112"/>
-      <c r="H179" s="112"/>
-    </row>
-    <row r="180" spans="1:8" ht="34.9">
-      <c r="A180" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B180" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C180" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D180" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E180" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F180" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="G180" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="H180" s="70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="16.5" customHeight="1">
+    <row r="178" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="71"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="71"/>
+    </row>
+    <row r="179" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="71"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="71"/>
+    </row>
+    <row r="180" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="71"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="71"/>
+    </row>
+    <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="71"/>
       <c r="B181" s="1"/>
       <c r="C181" s="4"/>
@@ -4304,7 +4266,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="71"/>
     </row>
-    <row r="182" spans="1:8" ht="16.5" customHeight="1">
+    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="71"/>
       <c r="B182" s="1"/>
       <c r="C182" s="4"/>
@@ -4314,7 +4276,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="71"/>
     </row>
-    <row r="183" spans="1:8" ht="16.5" customHeight="1">
+    <row r="183" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="71"/>
       <c r="B183" s="1"/>
       <c r="C183" s="4"/>
@@ -4324,7 +4286,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="71"/>
     </row>
-    <row r="184" spans="1:8" ht="16.5" customHeight="1">
+    <row r="184" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="71"/>
       <c r="B184" s="1"/>
       <c r="C184" s="4"/>
@@ -4334,7 +4296,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="71"/>
     </row>
-    <row r="185" spans="1:8" ht="16.5" customHeight="1">
+    <row r="185" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="71"/>
       <c r="B185" s="1"/>
       <c r="C185" s="4"/>
@@ -4344,7 +4306,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="71"/>
     </row>
-    <row r="186" spans="1:8" ht="16.5" customHeight="1">
+    <row r="186" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="71"/>
       <c r="B186" s="1"/>
       <c r="C186" s="4"/>
@@ -4354,7 +4316,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="71"/>
     </row>
-    <row r="187" spans="1:8" ht="16.5" customHeight="1">
+    <row r="187" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="71"/>
       <c r="B187" s="1"/>
       <c r="C187" s="4"/>
@@ -4364,7 +4326,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="71"/>
     </row>
-    <row r="188" spans="1:8" ht="16.5" customHeight="1">
+    <row r="188" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="71"/>
       <c r="B188" s="1"/>
       <c r="C188" s="4"/>
@@ -4374,7 +4336,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="71"/>
     </row>
-    <row r="189" spans="1:8" ht="16.5" customHeight="1">
+    <row r="189" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="71"/>
       <c r="B189" s="1"/>
       <c r="C189" s="4"/>
@@ -4384,7 +4346,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="71"/>
     </row>
-    <row r="190" spans="1:8" ht="16.5" customHeight="1">
+    <row r="190" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="71"/>
       <c r="B190" s="1"/>
       <c r="C190" s="4"/>
@@ -4394,7 +4356,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="71"/>
     </row>
-    <row r="191" spans="1:8" ht="16.5" customHeight="1">
+    <row r="191" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="71"/>
       <c r="B191" s="1"/>
       <c r="C191" s="4"/>
@@ -4404,7 +4366,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="71"/>
     </row>
-    <row r="192" spans="1:8" ht="16.5" customHeight="1">
+    <row r="192" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="71"/>
       <c r="B192" s="1"/>
       <c r="C192" s="4"/>
@@ -4414,7 +4376,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="71"/>
     </row>
-    <row r="193" spans="1:8" ht="16.5" customHeight="1">
+    <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="71"/>
       <c r="B193" s="1"/>
       <c r="C193" s="4"/>
@@ -4424,7 +4386,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="71"/>
     </row>
-    <row r="194" spans="1:8" ht="16.5" customHeight="1">
+    <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="71"/>
       <c r="B194" s="1"/>
       <c r="C194" s="4"/>
@@ -4434,7 +4396,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="71"/>
     </row>
-    <row r="195" spans="1:8" ht="16.5" customHeight="1">
+    <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="71"/>
       <c r="B195" s="1"/>
       <c r="C195" s="4"/>
@@ -4444,7 +4406,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="71"/>
     </row>
-    <row r="196" spans="1:8" ht="16.5" customHeight="1">
+    <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="71"/>
       <c r="B196" s="1"/>
       <c r="C196" s="4"/>
@@ -4454,7 +4416,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="71"/>
     </row>
-    <row r="197" spans="1:8" ht="16.5" customHeight="1">
+    <row r="197" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="71"/>
       <c r="B197" s="1"/>
       <c r="C197" s="4"/>
@@ -4464,7 +4426,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="71"/>
     </row>
-    <row r="198" spans="1:8" ht="16.5" customHeight="1">
+    <row r="198" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="71"/>
       <c r="B198" s="1"/>
       <c r="C198" s="4"/>
@@ -4474,7 +4436,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="71"/>
     </row>
-    <row r="199" spans="1:8" ht="16.5" customHeight="1">
+    <row r="199" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="71"/>
       <c r="B199" s="1"/>
       <c r="C199" s="4"/>
@@ -4484,7 +4446,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="71"/>
     </row>
-    <row r="200" spans="1:8" ht="16.5" customHeight="1">
+    <row r="200" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="71"/>
       <c r="B200" s="1"/>
       <c r="C200" s="4"/>
@@ -4494,7 +4456,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="71"/>
     </row>
-    <row r="201" spans="1:8" ht="16.5" customHeight="1">
+    <row r="201" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="71"/>
       <c r="B201" s="1"/>
       <c r="C201" s="4"/>
@@ -4504,7 +4466,7 @@
       <c r="G201" s="4"/>
       <c r="H201" s="71"/>
     </row>
-    <row r="202" spans="1:8" ht="16.5" customHeight="1">
+    <row r="202" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="71"/>
       <c r="B202" s="1"/>
       <c r="C202" s="4"/>
@@ -4514,7 +4476,7 @@
       <c r="G202" s="4"/>
       <c r="H202" s="71"/>
     </row>
-    <row r="203" spans="1:8" ht="16.5" customHeight="1">
+    <row r="203" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="71"/>
       <c r="B203" s="1"/>
       <c r="C203" s="4"/>
@@ -4524,7 +4486,7 @@
       <c r="G203" s="4"/>
       <c r="H203" s="71"/>
     </row>
-    <row r="204" spans="1:8" ht="16.5" customHeight="1">
+    <row r="204" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="71"/>
       <c r="B204" s="1"/>
       <c r="C204" s="4"/>
@@ -4534,7 +4496,7 @@
       <c r="G204" s="4"/>
       <c r="H204" s="71"/>
     </row>
-    <row r="205" spans="1:8" ht="16.5" customHeight="1">
+    <row r="205" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="71"/>
       <c r="B205" s="1"/>
       <c r="C205" s="4"/>
@@ -4544,7 +4506,7 @@
       <c r="G205" s="4"/>
       <c r="H205" s="71"/>
     </row>
-    <row r="206" spans="1:8" ht="16.5" customHeight="1">
+    <row r="206" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="71"/>
       <c r="B206" s="1"/>
       <c r="C206" s="4"/>
@@ -4554,7 +4516,7 @@
       <c r="G206" s="4"/>
       <c r="H206" s="71"/>
     </row>
-    <row r="207" spans="1:8" ht="16.5" customHeight="1">
+    <row r="207" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="71"/>
       <c r="B207" s="1"/>
       <c r="C207" s="4"/>
@@ -4564,37 +4526,55 @@
       <c r="G207" s="4"/>
       <c r="H207" s="71"/>
     </row>
-    <row r="208" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A208" s="71"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="71"/>
-    </row>
-    <row r="209" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A209" s="71"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="4"/>
-      <c r="H209" s="71"/>
-    </row>
-    <row r="210" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A210" s="71"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="71"/>
-    </row>
-    <row r="211" spans="1:8" ht="16.5" customHeight="1">
+    <row r="208" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B208" s="107"/>
+      <c r="C208" s="107"/>
+      <c r="D208" s="107"/>
+      <c r="E208" s="107"/>
+      <c r="F208" s="107"/>
+      <c r="G208" s="107"/>
+      <c r="H208" s="107"/>
+    </row>
+    <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="107"/>
+      <c r="B209" s="107"/>
+      <c r="C209" s="107"/>
+      <c r="D209" s="107"/>
+      <c r="E209" s="107"/>
+      <c r="F209" s="107"/>
+      <c r="G209" s="107"/>
+      <c r="H209" s="107"/>
+    </row>
+    <row r="210" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A210" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C210" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E210" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F210" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G210" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H210" s="70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="71"/>
       <c r="B211" s="1"/>
       <c r="C211" s="4"/>
@@ -4604,7 +4584,7 @@
       <c r="G211" s="4"/>
       <c r="H211" s="71"/>
     </row>
-    <row r="212" spans="1:8" ht="16.5" customHeight="1">
+    <row r="212" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="71"/>
       <c r="B212" s="1"/>
       <c r="C212" s="4"/>
@@ -4614,7 +4594,7 @@
       <c r="G212" s="4"/>
       <c r="H212" s="71"/>
     </row>
-    <row r="213" spans="1:8" ht="16.5" customHeight="1">
+    <row r="213" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="71"/>
       <c r="B213" s="1"/>
       <c r="C213" s="4"/>
@@ -4624,7 +4604,7 @@
       <c r="G213" s="4"/>
       <c r="H213" s="71"/>
     </row>
-    <row r="214" spans="1:8" ht="16.5" customHeight="1">
+    <row r="214" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="71"/>
       <c r="B214" s="1"/>
       <c r="C214" s="4"/>
@@ -4634,7 +4614,7 @@
       <c r="G214" s="4"/>
       <c r="H214" s="71"/>
     </row>
-    <row r="215" spans="1:8" ht="16.5" customHeight="1">
+    <row r="215" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="71"/>
       <c r="B215" s="1"/>
       <c r="C215" s="4"/>
@@ -4644,7 +4624,7 @@
       <c r="G215" s="4"/>
       <c r="H215" s="71"/>
     </row>
-    <row r="216" spans="1:8" ht="16.5" customHeight="1">
+    <row r="216" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="71"/>
       <c r="B216" s="1"/>
       <c r="C216" s="4"/>
@@ -4654,7 +4634,7 @@
       <c r="G216" s="4"/>
       <c r="H216" s="71"/>
     </row>
-    <row r="217" spans="1:8" ht="16.5" customHeight="1">
+    <row r="217" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="71"/>
       <c r="B217" s="1"/>
       <c r="C217" s="4"/>
@@ -4664,7 +4644,7 @@
       <c r="G217" s="4"/>
       <c r="H217" s="71"/>
     </row>
-    <row r="218" spans="1:8" ht="16.5" customHeight="1">
+    <row r="218" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="71"/>
       <c r="B218" s="1"/>
       <c r="C218" s="4"/>
@@ -4674,7 +4654,7 @@
       <c r="G218" s="4"/>
       <c r="H218" s="71"/>
     </row>
-    <row r="219" spans="1:8" ht="16.5" customHeight="1">
+    <row r="219" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="71"/>
       <c r="B219" s="1"/>
       <c r="C219" s="4"/>
@@ -4684,7 +4664,7 @@
       <c r="G219" s="4"/>
       <c r="H219" s="71"/>
     </row>
-    <row r="220" spans="1:8" ht="16.5" customHeight="1">
+    <row r="220" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="71"/>
       <c r="B220" s="1"/>
       <c r="C220" s="4"/>
@@ -4694,7 +4674,7 @@
       <c r="G220" s="4"/>
       <c r="H220" s="71"/>
     </row>
-    <row r="221" spans="1:8" ht="16.5" customHeight="1">
+    <row r="221" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="71"/>
       <c r="B221" s="1"/>
       <c r="C221" s="4"/>
@@ -4704,7 +4684,7 @@
       <c r="G221" s="4"/>
       <c r="H221" s="71"/>
     </row>
-    <row r="222" spans="1:8" ht="16.5" customHeight="1">
+    <row r="222" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="71"/>
       <c r="B222" s="1"/>
       <c r="C222" s="4"/>
@@ -4714,7 +4694,7 @@
       <c r="G222" s="4"/>
       <c r="H222" s="71"/>
     </row>
-    <row r="223" spans="1:8" ht="16.5" customHeight="1">
+    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="71"/>
       <c r="B223" s="1"/>
       <c r="C223" s="4"/>
@@ -4724,7 +4704,7 @@
       <c r="G223" s="4"/>
       <c r="H223" s="71"/>
     </row>
-    <row r="224" spans="1:8" ht="16.5" customHeight="1">
+    <row r="224" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="71"/>
       <c r="B224" s="1"/>
       <c r="C224" s="4"/>
@@ -4734,7 +4714,7 @@
       <c r="G224" s="4"/>
       <c r="H224" s="71"/>
     </row>
-    <row r="225" spans="1:8" ht="16.5" customHeight="1">
+    <row r="225" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="71"/>
       <c r="B225" s="1"/>
       <c r="C225" s="4"/>
@@ -4744,7 +4724,7 @@
       <c r="G225" s="4"/>
       <c r="H225" s="71"/>
     </row>
-    <row r="226" spans="1:8" ht="16.5" customHeight="1">
+    <row r="226" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="71"/>
       <c r="B226" s="1"/>
       <c r="C226" s="4"/>
@@ -4754,7 +4734,7 @@
       <c r="G226" s="4"/>
       <c r="H226" s="71"/>
     </row>
-    <row r="227" spans="1:8" ht="16.5" customHeight="1">
+    <row r="227" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="71"/>
       <c r="B227" s="1"/>
       <c r="C227" s="4"/>
@@ -4764,7 +4744,7 @@
       <c r="G227" s="4"/>
       <c r="H227" s="71"/>
     </row>
-    <row r="228" spans="1:8" ht="16.5" customHeight="1">
+    <row r="228" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="71"/>
       <c r="B228" s="1"/>
       <c r="C228" s="4"/>
@@ -4774,7 +4754,7 @@
       <c r="G228" s="4"/>
       <c r="H228" s="71"/>
     </row>
-    <row r="229" spans="1:8" ht="16.5" customHeight="1">
+    <row r="229" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="71"/>
       <c r="B229" s="1"/>
       <c r="C229" s="4"/>
@@ -4784,7 +4764,7 @@
       <c r="G229" s="4"/>
       <c r="H229" s="71"/>
     </row>
-    <row r="230" spans="1:8" ht="16.5" customHeight="1">
+    <row r="230" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="71"/>
       <c r="B230" s="1"/>
       <c r="C230" s="4"/>
@@ -4794,7 +4774,7 @@
       <c r="G230" s="4"/>
       <c r="H230" s="71"/>
     </row>
-    <row r="231" spans="1:8" ht="16.5" customHeight="1">
+    <row r="231" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="71"/>
       <c r="B231" s="1"/>
       <c r="C231" s="4"/>
@@ -4804,58 +4784,428 @@
       <c r="G231" s="4"/>
       <c r="H231" s="71"/>
     </row>
-    <row r="232" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="H232" s="3"/>
-    </row>
-    <row r="233" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A233" s="3"/>
-      <c r="E233" s="3"/>
-    </row>
-    <row r="234" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A234" s="3"/>
-      <c r="E234" s="3"/>
-    </row>
-    <row r="235" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A235" s="3"/>
-      <c r="E235" s="3"/>
+    <row r="232" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="71"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="71"/>
+    </row>
+    <row r="233" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="71"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="71"/>
+    </row>
+    <row r="234" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="71"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="71"/>
+    </row>
+    <row r="235" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="71"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="71"/>
+    </row>
+    <row r="236" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="71"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="71"/>
+    </row>
+    <row r="237" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="71"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="71"/>
+    </row>
+    <row r="238" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="71"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="71"/>
+    </row>
+    <row r="239" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="71"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="71"/>
+    </row>
+    <row r="240" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="71"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="71"/>
+    </row>
+    <row r="241" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="71"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="71"/>
+    </row>
+    <row r="242" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="71"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="71"/>
+    </row>
+    <row r="243" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="71"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="71"/>
+    </row>
+    <row r="244" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="71"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="71"/>
+    </row>
+    <row r="245" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="71"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="71"/>
+    </row>
+    <row r="246" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="71"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="71"/>
+    </row>
+    <row r="247" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="71"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="71"/>
+    </row>
+    <row r="248" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="71"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="71"/>
+    </row>
+    <row r="249" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="71"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="71"/>
+    </row>
+    <row r="250" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="71"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="71"/>
+    </row>
+    <row r="251" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="71"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="71"/>
+    </row>
+    <row r="252" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="71"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="71"/>
+    </row>
+    <row r="253" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="71"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="71"/>
+    </row>
+    <row r="254" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="71"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="71"/>
+    </row>
+    <row r="255" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="71"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="71"/>
+    </row>
+    <row r="256" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="71"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="71"/>
+    </row>
+    <row r="257" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="71"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="71"/>
+    </row>
+    <row r="258" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="71"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="71"/>
+    </row>
+    <row r="259" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="71"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="4"/>
+      <c r="H259" s="71"/>
+    </row>
+    <row r="260" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A260" s="71"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="4"/>
+      <c r="H260" s="71"/>
+    </row>
+    <row r="261" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A261" s="71"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="4"/>
+      <c r="H261" s="71"/>
+    </row>
+    <row r="262" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="71"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="4"/>
+      <c r="H262" s="71"/>
+    </row>
+    <row r="263" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="71"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="71"/>
+    </row>
+    <row r="264" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="71"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="4"/>
+      <c r="H264" s="71"/>
+    </row>
+    <row r="265" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="71"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="4"/>
+      <c r="H265" s="71"/>
+    </row>
+    <row r="266" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="71"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="4"/>
+      <c r="H266" s="71"/>
+    </row>
+    <row r="267" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A267" s="71"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="71"/>
+    </row>
+    <row r="268" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A268" s="71"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="4"/>
+      <c r="H268" s="71"/>
+    </row>
+    <row r="269" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A270" s="3"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A271" s="3"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A272" s="3"/>
+      <c r="E272" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:H38"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A86:H87"/>
+    <mergeCell ref="A208:H209"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:H43"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A73:H74"/>
-    <mergeCell ref="A178:H179"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:H45"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="4" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="36" max="7" man="1"/>
-    <brk id="72" max="7" man="1"/>
+    <brk id="41" max="7" man="1"/>
+    <brk id="85" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>